--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/TENNESSEE_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/TENNESSEE_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1354"/>
+  <dimension ref="A1:D1348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C32">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C35">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C37">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C45">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C67">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C68">
@@ -1317,7 +1317,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C72">
@@ -1434,7 +1434,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C81">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C82">
@@ -1959,7 +1959,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C121">
@@ -1972,7 +1972,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C122">
@@ -2341,7 +2341,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C150">
@@ -2502,7 +2502,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C179">
@@ -2902,7 +2902,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C192">
@@ -2954,7 +2954,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C196">
@@ -3006,7 +3006,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C200">
@@ -3019,7 +3019,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C201">
@@ -3097,12 +3097,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C207">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C210">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C212">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C219">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C226">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C232">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C238">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C239">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C250">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C258">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C259">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C261">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C263">
@@ -3934,7 +3934,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C271">
@@ -4051,7 +4051,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C280">
@@ -4103,7 +4103,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C284">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C285">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C286">
@@ -4142,7 +4142,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C287">
@@ -4290,7 +4290,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C298">
@@ -4303,7 +4303,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C299">
@@ -4316,7 +4316,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C300">
@@ -4420,7 +4420,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C308">
@@ -4459,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C311">
@@ -4550,7 +4550,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C318">
@@ -4602,7 +4602,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C322">
@@ -4628,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C324">
@@ -4654,7 +4654,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C326">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C327">
@@ -4693,7 +4693,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C329">
@@ -4758,7 +4758,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C334">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C340">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C342">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C343">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C346">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C348">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C349">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C351">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C352">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C353">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C356">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C357">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C361">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C367">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C368">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C370">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C371">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C373">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C376">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C389">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C391">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C393">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C395">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C399">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C400">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C410">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C413">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C419">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C425">
@@ -5977,7 +5977,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C427">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C430">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C436">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C437">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C438">
@@ -6133,7 +6133,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C439">
@@ -6159,7 +6159,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C441">
@@ -6172,7 +6172,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C442">
@@ -6185,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C443">
@@ -6224,7 +6224,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C446">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C451">
@@ -6328,7 +6328,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C454">
@@ -6354,7 +6354,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C456">
@@ -6367,7 +6367,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C457">
@@ -6406,7 +6406,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C460">
@@ -6497,7 +6497,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C467">
@@ -6510,7 +6510,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C468">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C469">
@@ -6549,7 +6549,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C471">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C475">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C476">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C481">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C482">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C485">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C489">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C494">
@@ -6905,7 +6905,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C498">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C499">
@@ -6970,7 +6970,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C503">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C505">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C509">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C514">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C515">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C516">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C517">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C520">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C521">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C525">
@@ -7295,7 +7295,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C528">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C529">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C536">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C537">
@@ -7464,7 +7464,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C541">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C542">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C545">
@@ -7768,7 +7768,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C564">
@@ -7794,7 +7794,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C566">
@@ -7905,7 +7905,7 @@
         <v>112</v>
       </c>
       <c r="D574">
-        <v>0.009942299156679981</v>
+        <v>0.00994229915667998</v>
       </c>
     </row>
     <row r="575">
@@ -8496,7 +8496,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C620">
@@ -8774,7 +8774,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C641">
@@ -8891,7 +8891,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C650">
@@ -8943,7 +8943,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C654">
@@ -8956,7 +8956,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C655">
@@ -9047,7 +9047,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C662">
@@ -9169,7 +9169,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C671">
@@ -9473,7 +9473,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C694">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C697">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C704">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C706">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C707">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C709">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C710">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C711">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C712">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C713">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C714">
@@ -9764,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C716">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C717">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C721">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C723">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C725">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C727">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C728">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C729">
@@ -9946,7 +9946,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C730">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C732">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C733">
@@ -10076,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C740">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C742">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C745">
@@ -10362,7 +10362,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C762">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C774">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C798">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C800">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C811">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C840">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C841">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C846">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C853">
@@ -11883,7 +11883,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C879">
@@ -11987,7 +11987,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C887">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C889">
@@ -12026,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C890">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C891">
@@ -12078,7 +12078,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C894">
@@ -12091,7 +12091,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C895">
@@ -12104,7 +12104,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C896">
@@ -12130,7 +12130,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C898">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C899">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C900">
@@ -12182,7 +12182,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C902">
@@ -12408,7 +12408,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C919">
@@ -12538,7 +12538,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C929">
@@ -12603,7 +12603,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C934">
@@ -12694,7 +12694,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C941">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C946">
@@ -12915,7 +12915,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C958">
@@ -12941,7 +12941,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C960">
@@ -12954,7 +12954,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C961">
@@ -13045,7 +13045,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C968">
@@ -13084,7 +13084,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C971">
@@ -13097,7 +13097,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C972">
@@ -13136,7 +13136,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C975">
@@ -13240,7 +13240,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C983">
@@ -13388,7 +13388,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C994">
@@ -13414,7 +13414,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C996">
@@ -13492,7 +13492,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1002">
@@ -13505,7 +13505,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1003">
@@ -13544,7 +13544,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1006">
@@ -13583,7 +13583,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1009">
@@ -13788,7 +13788,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1024">
@@ -13918,7 +13918,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1034">
@@ -13983,7 +13983,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1039">
@@ -14048,7 +14048,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1044">
@@ -14074,7 +14074,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1046">
@@ -14139,7 +14139,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1051">
@@ -14191,7 +14191,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1055">
@@ -14204,7 +14204,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1056">
@@ -14217,7 +14217,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1057">
@@ -14230,7 +14230,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1058">
@@ -14243,7 +14243,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1059">
@@ -14630,7 +14630,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1088">
@@ -15121,7 +15121,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1125">
@@ -15230,7 +15230,7 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1133">
@@ -15308,7 +15308,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1139">
@@ -15334,7 +15334,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1141">
@@ -15373,7 +15373,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1144">
@@ -15534,7 +15534,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1156">
@@ -15573,7 +15573,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1159">
@@ -15690,7 +15690,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1168">
@@ -15716,7 +15716,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1170">
@@ -15755,7 +15755,7 @@
     <row r="1173">
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1173">
@@ -15781,7 +15781,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1175">
@@ -15950,7 +15950,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1188">
@@ -16145,7 +16145,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1203">
@@ -16171,7 +16171,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1205">
@@ -16184,7 +16184,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1206">
@@ -16197,7 +16197,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1207">
@@ -16314,7 +16314,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1216">
@@ -16366,7 +16366,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1220">
@@ -16405,7 +16405,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1223">
@@ -16444,7 +16444,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1226">
@@ -16483,7 +16483,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1229">
@@ -16509,7 +16509,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1231">
@@ -16639,7 +16639,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1241">
@@ -16691,7 +16691,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1245">
@@ -16704,7 +16704,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1246">
@@ -16756,7 +16756,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1250">
@@ -16834,7 +16834,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1256">
@@ -16873,7 +16873,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1259">
@@ -17276,7 +17276,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1290">
@@ -17367,7 +17367,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1297">
@@ -17533,7 +17533,7 @@
     <row r="1309">
       <c r="B1309" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1309">
@@ -17559,7 +17559,7 @@
     <row r="1311">
       <c r="B1311" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1311">
@@ -17689,7 +17689,7 @@
     <row r="1321">
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1321">
@@ -17793,7 +17793,7 @@
     <row r="1329">
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1329">
@@ -17806,7 +17806,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1330">
@@ -17923,7 +17923,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1339">
@@ -17936,7 +17936,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1340">
@@ -18048,41 +18048,6 @@
       </c>
       <c r="D1348">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
